--- a/resource/res/files/mau-them-danh-sach-cau-hoi.xlsx
+++ b/resource/res/files/mau-them-danh-sach-cau-hoi.xlsx
@@ -1,16 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
-  <fileSharing readOnlyRecommended="0" userName="dzu69"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\tno\resource\res\files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0" xWindow="240" yWindow="60" windowWidth="0" windowHeight="0" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="0" windowHeight="0" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcOnSave="0"/>
+  <calcPr calcId="0" calcOnSave="0"/>
   <extLst>
     <ext uri="smNativeData">
       <pm:revision xmlns:pm="smNativeData" day="1537368908" val="934" rev="123" revOS="4"/>
@@ -28,7 +32,7 @@
     <author>Unknown</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0">
+    <comment ref="B1" authorId="0" shapeId="0">
       <text/>
     </comment>
   </commentList>
@@ -36,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>MẪU DANH SÁCH CÂU HỎI - HỆ THỐNG TRẮC NGHIỆM ONLINE</t>
   </si>
@@ -46,21 +50,9 @@
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="0"/>
         <family val="2"/>
-        <sz val="10"/>
-        <b val="0"/>
-        <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1537368908">
-              <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
-              <pm:cs/>
-              <pm:ea/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
       </rPr>
       <t xml:space="preserve"> Không sửa mẫu để tránh lỗi khi nhập vào cơ sở dữ liệu</t>
     </r>
@@ -91,119 +83,57 @@
   </si>
   <si>
     <t>Cành cây có 5 con chim, bắn mất 1 con, hỏi còn mấy con chim?</t>
+  </si>
+  <si>
+    <t>Khối (1-&gt;12)</t>
+  </si>
+  <si>
+    <t>Chương</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="11">
-    <numFmt numFmtId="5" formatCode="#,##0\ &quot;$&quot;;\-#,##0\ &quot;$&quot;"/>
-    <numFmt numFmtId="6" formatCode="#,##0\ &quot;$&quot;;[Red]\-#,##0\ &quot;$&quot;"/>
-    <numFmt numFmtId="7" formatCode="#,##0.00\ &quot;$&quot;;\-#,##0.00\ &quot;$&quot;"/>
-    <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;$&quot;;[Red]\-#,##0.00\ &quot;$&quot;"/>
-    <numFmt numFmtId="42" formatCode="_-* #,##0\ &quot;$&quot;_-;\-* #,##0\ &quot;$&quot;_-;_-* &quot;-&quot;\ &quot;$&quot;_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0\ _$_-;\-* #,##0\ _$_-;_-* &quot;-&quot;\ _$_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;$&quot;_-;\-* #,##0.00\ &quot;$&quot;_-;_-* &quot;-&quot;??\ &quot;$&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _$_-;\-* #,##0.00\ _$_-;_-* &quot;-&quot;??\ _$_-;_-@_-"/>
-    <numFmt numFmtId="14" formatCode="DD/MM/YYYY"/>
-    <numFmt numFmtId="164" formatCode="YYYY\-MM\-DD"/>
-    <numFmt numFmtId="4" formatCode="#,##0.00"/>
-  </numFmts>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-      <color rgb="FF000000"/>
-      <sz val="10"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1537368908" ulstyle="none" kern="1">
-            <pm:latin face="Arial" sz="200" lang="default"/>
-            <pm:cs face="Times New Roman" sz="200" lang="default"/>
-            <pm:ea face="SimSun" sz="200" lang="default"/>
-          </pm:charSpec>
-        </ext>
-      </extLst>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-      <b/>
-      <color rgb="FF000000"/>
+    </font>
+    <font>
       <sz val="10"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1537368908" ulstyle="none" kern="1">
-            <pm:latin face="Arial" sz="200" lang="default" weight="bold"/>
-            <pm:cs face="Times New Roman" sz="200" lang="default"/>
-            <pm:ea face="SimSun" sz="200" lang="default"/>
-          </pm:charSpec>
-        </ext>
-      </extLst>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1537368908" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
-          </ext>
-        </extLst>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1537368908"/>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1537368908"/>
-        </ext>
-      </extLst>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -216,8 +146,15 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
     <ext uri="smNativeData">
       <pm:charStyles xmlns:pm="smNativeData" id="1537368908" count="1">
         <pm:charStyle name="Normal" fontId="0"/>
@@ -238,10 +175,10 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="4F81BD"/>
@@ -270,14 +207,74 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="SimSun"/>
-        <a:cs typeface="Times New Roman"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -453,30 +450,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="normal" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="9" defaultColWidth="10.000000" defaultRowHeight="13.45"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.621622" customWidth="1"/>
-    <col min="2" max="2" width="25.405405" customWidth="1"/>
-    <col min="3" max="3" width="14.864865" customWidth="1"/>
-    <col min="4" max="4" width="20.270270" customWidth="1"/>
-    <col min="5" max="5" width="15.279279" customWidth="1"/>
-    <col min="6" max="6" width="13.378378" customWidth="1" style="0"/>
-    <col min="7" max="7" width="13.918919" customWidth="1"/>
+    <col min="1" max="1" width="6.5703125" customWidth="1"/>
+    <col min="2" max="2" width="25.42578125" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="1" customFormat="1">
+    <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -484,7 +482,7 @@
       <c r="C2"/>
       <c r="D2"/>
     </row>
-    <row r="3" spans="1:7" s="2" customFormat="1">
+    <row r="3" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -506,77 +504,78 @@
       <c r="G3" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="H3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="n">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>2</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>1</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>3</v>
       </c>
-      <c r="F4" s="3" t="n">
+      <c r="F4" s="3">
         <v>4</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>2</v>
       </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="n">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>5</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>4</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>6</v>
       </c>
-      <c r="F5" s="3" t="n">
+      <c r="F5" s="3">
         <v>3</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>4</v>
       </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
+      </c>
     </row>
-    <row r="6" spans="6:6">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F6" s="3"/>
     </row>
   </sheetData>
-  <printOptions>
-    <extLst>
-      <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1537368908" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
-      </ext>
-    </extLst>
-  </printOptions>
-  <pageMargins left="0.787500" right="0.787500" top="0.787500" bottom="0.787500" header="0.393750" footer="0.393750"/>
-  <pageSetup paperSize="1" fitToWidth="0" fitToHeight="1" pageOrder="overThenDown"/>
-  <headerFooter>
-    <extLst>
-      <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1537368908" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1537368908" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1537368908" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1537368908" Id="1" type="0" value="0"/>
-      </ext>
-    </extLst>
-  </headerFooter>
-  <legacyDrawing r:id="rId2"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="0.78749999999999998" bottom="0.78749999999999998" header="0.39374999999999999" footer="0.39374999999999999"/>
+  <pageSetup fitToWidth="0" pageOrder="overThenDown"/>
+  <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext uri="smNativeData">
       <pm:sheetPrefs xmlns:pm="smNativeData" day="1537368908" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">

--- a/resource/res/files/mau-them-danh-sach-cau-hoi.xlsx
+++ b/resource/res/files/mau-them-danh-sach-cau-hoi.xlsx
@@ -1,28 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\tno\resource\res\files\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="0" windowHeight="0" tabRatio="500"/>
+    <workbookView windowWidth="19890" windowHeight="8280" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" calcOnSave="0"/>
-  <extLst>
-    <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1537368908" val="934" rev="123" revOS="4"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1537368908" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1537368908" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1537368908"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525" calcCompleted="0" calcOnSave="0"/>
 </workbook>
 </file>
 
@@ -32,7 +19,7 @@
     <author>Unknown</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0">
       <text/>
     </comment>
   </commentList>
@@ -40,19 +27,26 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>MẪU DANH SÁCH CÂU HỎI - HỆ THỐNG TRẮC NGHIỆM ONLINE</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>Lưu ý:</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> Không sửa mẫu để tránh lỗi khi nhập vào cơ sở dữ liệu</t>
     </r>
@@ -79,51 +73,403 @@
     <t>Đáp Án Đúng</t>
   </si>
   <si>
+    <t>Khối (1-&gt;12)</t>
+  </si>
+  <si>
+    <t>Chương</t>
+  </si>
+  <si>
+    <t>Độ khó (Dễ = 1, Trung Bình = 2, Khó = 3)</t>
+  </si>
+  <si>
     <t>1 + 1 = ?</t>
   </si>
   <si>
+    <t>A</t>
+  </si>
+  <si>
     <t>Cành cây có 5 con chim, bắn mất 1 con, hỏi còn mấy con chim?</t>
   </si>
   <si>
-    <t>Khối (1-&gt;12)</t>
-  </si>
-  <si>
-    <t>Chương</t>
+    <t>B</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_-* #,##0\ &quot;₫&quot;_-;\-* #,##0\ &quot;₫&quot;_-;_-* &quot;-&quot;\ &quot;₫&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;₫&quot;_-;\-* #,##0.00\ &quot;₫&quot;_-;_-* &quot;-&quot;??\ &quot;₫&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -131,34 +477,314 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
+  <cellStyles count="49">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-    <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1537368908" count="1">
-        <pm:charStyle name="Normal" fontId="0"/>
-      </pm:charStyles>
     </ext>
   </extLst>
 </styleSheet>
@@ -169,7 +795,7 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr val="windowText" lastClr="555555"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -207,7 +833,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -242,7 +868,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -445,36 +1071,38 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="11.25" outlineLevelRow="4"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" customWidth="1"/>
-    <col min="2" max="2" width="25.42578125" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" customWidth="1"/>
-    <col min="4" max="4" width="20.28515625" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" customWidth="1"/>
-    <col min="8" max="8" width="16.5703125" customWidth="1"/>
+    <col min="1" max="1" width="6.57142857142857" customWidth="1"/>
+    <col min="2" max="2" width="25.4285714285714" customWidth="1"/>
+    <col min="3" max="3" width="14.8571428571429" customWidth="1"/>
+    <col min="4" max="4" width="20.2857142857143" customWidth="1"/>
+    <col min="5" max="5" width="15.2857142857143" customWidth="1"/>
+    <col min="6" max="6" width="13.4285714285714" customWidth="1"/>
+    <col min="7" max="7" width="13.8571428571429" customWidth="1"/>
+    <col min="8" max="8" width="16.5714285714286" customWidth="1"/>
+    <col min="10" max="10" width="39.5714285714286" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" ht="28" customHeight="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1"/>
     </row>
-    <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" s="1" customFormat="1" ht="22" customHeight="1" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -482,7 +1110,7 @@
       <c r="C2"/>
       <c r="D2"/>
     </row>
-    <row r="3" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" s="2" customFormat="1" ht="21" customHeight="1" spans="1:10">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -505,18 +1133,21 @@
         <v>8</v>
       </c>
       <c r="H3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>12</v>
-      </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" ht="27" customHeight="1" spans="1:10">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -527,11 +1158,11 @@
       <c r="E4">
         <v>3</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4">
         <v>4</v>
       </c>
-      <c r="G4">
-        <v>2</v>
+      <c r="G4" t="s">
+        <v>13</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -539,13 +1170,16 @@
       <c r="I4">
         <v>1</v>
       </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" ht="27" customHeight="1" spans="1:10">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C5">
         <v>5</v>
@@ -556,11 +1190,11 @@
       <c r="E5">
         <v>6</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5">
         <v>3</v>
       </c>
-      <c r="G5">
-        <v>4</v>
+      <c r="G5" t="s">
+        <v>15</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -568,21 +1202,14 @@
       <c r="I5">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="F6" s="3"/>
+      <c r="J5">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="0.78749999999999998" bottom="0.78749999999999998" header="0.39374999999999999" footer="0.39374999999999999"/>
-  <pageSetup fitToWidth="0" pageOrder="overThenDown"/>
-  <legacyDrawing r:id="rId1"/>
-  <extLst>
-    <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1537368908" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
-        <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
-        <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
-      </pm:sheetPrefs>
-    </ext>
-  </extLst>
+  <pageMargins left="0.7875" right="0.7875" top="0.7875" bottom="0.7875" header="0.39375" footer="0.39375"/>
+  <pageSetup paperSize="1" fitToWidth="0" pageOrder="overThenDown" orientation="portrait"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>